--- a/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA89B01-BB7E-41DE-B47D-F9F8AB3F5F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2362573D-56B9-4714-8C76-5BBB14918CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <t>Tarakimu mbili ulizopewa, mfano: 11, 22,…</t>
   </si>
   <si>
-    <t>tz_u_202401_v4</t>
-  </si>
-  <si>
     <t>. = 10</t>
   </si>
   <si>
@@ -406,10 +403,13 @@
     <t>${u_add_result} = 'Yes' and ${u_sch_man}&gt;0</t>
   </si>
   <si>
-    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V4.1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_4_urine_v4_1</t>
+    <t>tz_sch_sth_impact_2405_4_urine_filtration</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration</t>
+  </si>
+  <si>
+    <t>tz_st_u_2405</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,28 +757,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,11 +1071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1322,7 +1316,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>65</v>
@@ -1407,14 +1401,14 @@
         <v>105</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="23"/>
       <c r="H11" s="14"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="14"/>
       <c r="L11" s="23"/>
       <c r="M11" s="14" t="s">
@@ -1470,18 +1464,18 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="48" t="s">
         <v>110</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>111</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>106</v>
@@ -1493,26 +1487,26 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:16" s="60" customFormat="1" ht="31.5">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:16" s="58" customFormat="1" ht="31.5">
+      <c r="A14" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="K14" s="59" t="s">
+      <c r="F14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="K14" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="59" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1624,7 +1618,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="51"/>
       <c r="K18" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>60</v>
@@ -1638,17 +1632,17 @@
     </row>
     <row r="19" spans="1:16" s="12" customFormat="1">
       <c r="A19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="27"/>
@@ -1656,7 +1650,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="27"/>
       <c r="K19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="15"/>
@@ -1664,33 +1658,29 @@
       <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:16" s="12" customFormat="1">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="F20" s="53"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="55"/>
       <c r="M20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
     </row>
     <row r="21" spans="1:16" s="12" customFormat="1">
       <c r="A21" s="15" t="s">
@@ -1958,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1985,7 +1975,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>69</v>
